--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>顺时针旋转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte1-byte4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,11 +327,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞行控制数据(5Bytes数据+3Bytes填充)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单DMP四元数采样数据(16Bytes数据+0Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte1-byte2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行控制数据(3Bytes数据+1Bytes填充)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W36"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1104,8 +1104,8 @@
     <col min="9" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:23" ht="14.25" customHeight="1" thickTop="1">
+    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1">
       <c r="B2" s="28" t="s">
         <v>23</v>
       </c>
@@ -1118,23 +1118,15 @@
       </c>
       <c r="I2" s="41"/>
       <c r="K2" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="33"/>
-      <c r="R2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="33"/>
-    </row>
-    <row r="3" spans="2:23">
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,14 +1153,8 @@
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="36"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="36"/>
-    </row>
-    <row r="4" spans="2:23">
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1196,14 +1182,8 @@
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
       <c r="P4" s="36"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36"/>
-    </row>
-    <row r="5" spans="2:23" ht="14.25" thickBot="1">
+    </row>
+    <row r="5" spans="2:16" ht="14.25" thickBot="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="22">
         <v>4</v>
@@ -1231,19 +1211,13 @@
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
       <c r="P5" s="36"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
-    </row>
-    <row r="6" spans="2:23" ht="14.25" thickTop="1">
+    </row>
+    <row r="6" spans="2:16" ht="14.25" thickTop="1">
       <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="35"/>
@@ -1251,19 +1225,13 @@
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
       <c r="P6" s="36"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="36"/>
-    </row>
-    <row r="7" spans="2:23">
+    </row>
+    <row r="7" spans="2:16">
       <c r="H7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
@@ -1271,14 +1239,8 @@
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="P7" s="36"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="36"/>
-    </row>
-    <row r="8" spans="2:23">
+    </row>
+    <row r="8" spans="2:16">
       <c r="H8" s="19" t="s">
         <v>29</v>
       </c>
@@ -1291,14 +1253,8 @@
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
       <c r="P8" s="36"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="36"/>
-    </row>
-    <row r="9" spans="2:23">
+    </row>
+    <row r="9" spans="2:16">
       <c r="H9" s="19" t="s">
         <v>30</v>
       </c>
@@ -1311,14 +1267,8 @@
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="36"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="36"/>
-    </row>
-    <row r="10" spans="2:23">
+    </row>
+    <row r="10" spans="2:16">
       <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1331,14 +1281,8 @@
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="36"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="44"/>
-    </row>
-    <row r="11" spans="2:23" ht="14.25" thickBot="1">
+    </row>
+    <row r="11" spans="2:16" ht="14.25" thickBot="1">
       <c r="H11" s="19" t="s">
         <v>32</v>
       </c>
@@ -1351,116 +1295,172 @@
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
       <c r="P11" s="39"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-    </row>
-    <row r="12" spans="2:23" ht="15" thickTop="1" thickBot="1">
+    </row>
+    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="H12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-    </row>
-    <row r="13" spans="2:23" ht="13.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
       <c r="H13" s="19" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" ht="13.5" customHeight="1">
+      <c r="K13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1">
       <c r="H14" s="19" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:23">
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16">
       <c r="H15" s="19" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:23">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16">
       <c r="H16" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="8:9">
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="8:16">
       <c r="H17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="8:9">
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="8:16">
       <c r="H18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="8:9">
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="8:16">
       <c r="H19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="8:9">
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="8:16">
       <c r="H20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="8:9">
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="8:16">
       <c r="H21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="8:9">
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="8:16">
       <c r="H22" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="8:9">
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="8:16" ht="14.25" thickBot="1">
       <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="8:9">
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="8:16" ht="14.25" thickTop="1">
       <c r="H24" s="19" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="8:9">
+    <row r="25" spans="8:16">
       <c r="H25" s="19" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="8:9">
+    <row r="26" spans="8:16">
       <c r="H26" s="19" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="8:9">
+    <row r="27" spans="8:16">
       <c r="H27" s="19" t="s">
         <v>9</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="8:9">
+    <row r="28" spans="8:16">
       <c r="H28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="8:9">
+    <row r="29" spans="8:16">
       <c r="H29" s="19" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="8:9">
+    <row r="30" spans="8:16">
       <c r="H30" s="19" t="s">
         <v>12</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="8:9">
+    <row r="31" spans="8:16">
       <c r="H31" s="19" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="8:9">
+    <row r="32" spans="8:16">
       <c r="H32" s="19" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1562,7 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:P11"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:W12"/>
+    <mergeCell ref="K13:P23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,7 +1575,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1590,7 +1590,7 @@
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1">
       <c r="B2" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -1601,13 +1601,13 @@
         <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1629,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1643,13 +1643,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1">
@@ -1660,10 +1660,10 @@
         <v>55</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25" thickTop="1"/>
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1692,7 +1692,7 @@
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1">
       <c r="B2" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -1700,30 +1700,30 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
       <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickTop="1"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -245,15 +245,6 @@
   </si>
   <si>
     <t>传感数据:  1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型字段表说明:
-1.bi28表示帧的方向,上行表示四轴发往上位机(PC/手机)，下行表示上位机发往四轴。
-2.上行帧中,bit30无意义;下行帧中bit30表示该帧中是否包含飞行控制数据。
-3.上行帧中,bit29表示该帧是否包含采样数据;下行帧中bit29表示上位机要求采样。
-4.上行帧中,bit5-bit0表示该帧拥有的传感数据;下行帧中bit5-bit0无意义。
-5.bit5-bit0中数据在数据字段中的排列顺序为:bit0-bit5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,12 +329,45 @@
     <t>飞行控制数据(3Bytes数据+1Bytes填充)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>类型字段表说明:
+1.bi28表示帧的方向,上行表示四轴发往上位机(PC/手机)，下行表示上位机发往四轴。
+2.上行帧中,bit30无意义;下行帧中bit30表示该帧中是否包含飞行控制数据。
+3.上行帧中,bit29表示该帧是否包含采样数据;下行帧中bit29表示上位机要求采样。
+4.上行帧中,bit5-bit0表示该帧拥有的传感数据;下行帧中bit5-bit0表示上位机请求的采用数据。
+5.bit5-bit0中数据在数据字段中的排列顺序为:bit0-bit5
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下行帧总长固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(16Bytes),数据4Bytes</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +390,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1093,7 +1125,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1118,7 +1150,7 @@
       </c>
       <c r="I2" s="41"/>
       <c r="K2" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -1194,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="22">
         <v>4</v>
@@ -1312,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
@@ -1590,7 +1622,7 @@
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1">
       <c r="B2" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -1604,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>56</v>
@@ -1692,7 +1724,7 @@
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1">
       <c r="B2" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -1700,30 +1732,30 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="14.25" thickBot="1">
       <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickTop="1"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
-    <sheet name="飞行控制数据格式" sheetId="5" r:id="rId2"/>
-    <sheet name="单DMP四元数采样数据格式" sheetId="6" r:id="rId3"/>
+    <sheet name="下行帧数据格式" sheetId="5" r:id="rId2"/>
+    <sheet name="上行帧数据格式" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,31 +256,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>byte0-byte3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte8-byte11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>byte11-byte15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32位浮点q0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32位浮点q1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32位浮点q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32位浮点q3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,6 +310,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>byte0-byte3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte16-byte19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>类型字段表说明:
 1.bi28表示帧的方向,上行表示四轴发往上位机(PC/手机)，下行表示上位机发往四轴。
@@ -337,7 +325,7 @@
 3.上行帧中,bit29表示该帧是否包含采样数据;下行帧中bit29表示上位机要求采样。
 4.上行帧中,bit5-bit0表示该帧拥有的传感数据;下行帧中bit5-bit0表示上位机请求的采用数据。
 5.bit5-bit0中数据在数据字段中的排列顺序为:bit0-bit5
-6.</t>
+6.为了便于四轴快速解析,</t>
     </r>
     <r>
       <rPr>
@@ -358,8 +346,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(16Bytes),数据4Bytes</t>
+      <t>(16Bytes),数据域4Bytes
+7.为了实现下行帧总长固定,部分下行帧数据域4Bytes全部使用填充字节</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四轴毫秒数(uint32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q0(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q1(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q2(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q3(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感请求数据(0Bytes数据+4Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte0-byte3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5A5A5A5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -684,11 +705,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -704,7 +775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -812,13 +882,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1124,11 +1202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="7" width="7.25" customWidth="1"/>
@@ -1136,465 +1214,483 @@
     <col min="9" max="9" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="H2" s="40" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="H2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="K2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="I2" s="40"/>
+      <c r="K2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" thickBot="1">
+      <c r="I4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>4</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>4</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-    </row>
-    <row r="6" spans="2:16" ht="14.25" thickTop="1">
-      <c r="H6" s="19" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="H7" s="19" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="H8" s="19" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="H9" s="19" t="s">
+      <c r="I8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="H10" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36"/>
-    </row>
-    <row r="11" spans="2:16" ht="14.25" thickBot="1">
-      <c r="H11" s="19" t="s">
+      <c r="I10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H12" s="19" t="s">
+      <c r="I11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
-      <c r="H13" s="19" t="s">
+      <c r="I12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1">
-      <c r="H14" s="19" t="s">
+      <c r="I13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="36"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="H15" s="19" t="s">
+      <c r="I14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="H16" s="19" t="s">
+      <c r="I15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="H17" s="19" t="s">
+      <c r="I16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="H18" s="19" t="s">
+      <c r="I17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="H19" s="19" t="s">
+      <c r="I18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-    </row>
-    <row r="20" spans="8:16">
-      <c r="H20" s="19" t="s">
+      <c r="I19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="36"/>
-    </row>
-    <row r="21" spans="8:16">
-      <c r="H21" s="19" t="s">
+      <c r="I20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="8:16">
-      <c r="H22" s="19" t="s">
+      <c r="I21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
-    </row>
-    <row r="23" spans="8:16" ht="14.25" thickBot="1">
-      <c r="H23" s="19" t="s">
+      <c r="I22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="8:16" ht="14.25" thickTop="1">
-      <c r="H24" s="19" t="s">
+      <c r="I23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="8:16">
-      <c r="H25" s="19" t="s">
+      <c r="I24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="8:16">
-      <c r="H26" s="19" t="s">
+      <c r="I25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="8:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="8:16">
-      <c r="H27" s="19" t="s">
+      <c r="I26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+    </row>
+    <row r="27" spans="8:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="8:16">
-      <c r="H28" s="19" t="s">
+      <c r="I27" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="8:16">
-      <c r="H29" s="19" t="s">
+      <c r="I28" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="8:16">
-      <c r="H30" s="19" t="s">
+      <c r="I29" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="8:16">
-      <c r="H31" s="19" t="s">
+    <row r="31" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="8:16">
-      <c r="H32" s="19" t="s">
+    <row r="32" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="H32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="19" t="s">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="19" t="s">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.25" thickBot="1">
-      <c r="H35" s="21" t="s">
+    <row r="35" spans="8:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.25" thickTop="1"/>
+    <row r="36" spans="8:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:P11"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K13:P23"/>
+    <mergeCell ref="K13:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,13 +1700,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
@@ -1619,89 +1715,117 @@
     <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B2" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="56"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="12">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B7" s="4">
+    <row r="11" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="14.25" thickTop="1"/>
+    <row r="12" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,58 +1834,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="9" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B2" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="14.25" thickBot="1">
+      <c r="F3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="14.25" thickTop="1"/>
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -380,7 +380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xA5A5A5A5</t>
+    <t>采样间隔(ms)[0,10000]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,23 +882,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1703,7 +1703,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,20 +1725,20 @@
       <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -1852,10 +1852,10 @@
       <c r="B2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,15 +372,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传感请求数据(0Bytes数据+4Bytes填充)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte0-byte3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采样间隔(ms)[0,10000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感数据停止(0Bytes数据+4Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感请求数据(4Bytes数据+0Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5A5A5A5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1700,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1718,7 +1726,7 @@
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -1726,7 +1734,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -1734,7 +1742,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -1743,89 +1751,117 @@
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="47" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="49"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="11">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="11">
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+    <row r="15" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="7">
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞行控制:  1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bit31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
   </si>
   <si>
     <t>油门值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向:1上行,0下行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,14 +310,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>四轴毫秒数(uint32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q0(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q1(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q2(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q3(f32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte0-byte3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样间隔(ms)[0,10000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感数据停止(0Bytes数据+4Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感请求数据(4Bytes数据+0Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5A5A5A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向:1上行,0下行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本打印:  1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制指令:  1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>类型字段表说明:
-1.bi28表示帧的方向,上行表示四轴发往上位机(PC/手机)，下行表示上位机发往四轴。
-2.上行帧中,bit30无意义;下行帧中bit30表示该帧中是否包含飞行控制数据。
-3.上行帧中,bit29表示该帧是否包含采样数据;下行帧中bit29表示上位机要求采样。
-4.上行帧中,bit5-bit0表示该帧拥有的传感数据;下行帧中bit5-bit0表示上位机请求的采用数据。
-5.bit5-bit0中数据在数据字段中的排列顺序为:bit0-bit5
-6.为了便于四轴快速解析,</t>
+1.bi31表示帧的方向,上行表示四轴发往上位机(PC/手机)，下行表示上位机发往四轴。
+2.上行帧中bit30无意义;下行帧中bit30表示该帧中是否包含控制指令数据。
+3.上行帧中bit29表示该帧是否包含采样数据;下行帧中bit29表示上位机要求采样。
+4.上行帧中bit28表示该帧是否包含文本输出;下行帧中bit28无意义。
+5.上行帧中,bit5-bit0表示该帧拥有的传感数据;下行帧中bit5-bit0表示上位机请求的采用数据。
+6.bit5-bit0中数据在数据字段中的排列顺序为:bit0-bit5
+7.为了便于四轴快速解析,</t>
     </r>
     <r>
       <rPr>
@@ -347,48 +392,20 @@
         <scheme val="minor"/>
       </rPr>
       <t>(16Bytes),数据域4Bytes
-7.为了实现下行帧总长固定,部分下行帧数据域4Bytes全部使用填充字节</t>
+8.为了实现下行帧总长固定,部分下行帧数据域4Bytes全部使用填充字节</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四轴毫秒数(uint32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q0(f32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q1(f32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q2(f32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q3(f32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte0-byte3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采样间隔(ms)[0,10000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感数据停止(0Bytes数据+4Bytes填充)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感请求数据(4Bytes数据+0Bytes填充)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA5A5A5A5</t>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte0-byte127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(可小于127)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -763,11 +780,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -833,6 +895,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -875,38 +940,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1210,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,29 +1285,31 @@
     <col min="2" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="5.75" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="H2" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="K2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="H2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="K2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1261,16 +1328,16 @@
         <v>20</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -1289,17 +1356,17 @@
         <v>19</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1312,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="21">
         <v>4</v>
@@ -1321,42 +1388,42 @@
         <v>26</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H7" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H8" s="18" t="s">
@@ -1365,12 +1432,12 @@
       <c r="I8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H9" s="18" t="s">
@@ -1379,12 +1446,12 @@
       <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H10" s="18" t="s">
@@ -1393,12 +1460,12 @@
       <c r="I10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H11" s="18" t="s">
@@ -1407,12 +1474,12 @@
       <c r="I11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H12" s="18" t="s">
@@ -1429,14 +1496,14 @@
       <c r="I13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
+      <c r="K13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H14" s="18" t="s">
@@ -1445,12 +1512,12 @@
       <c r="I14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H15" s="18" t="s">
@@ -1459,12 +1526,12 @@
       <c r="I15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H16" s="18" t="s">
@@ -1473,12 +1540,12 @@
       <c r="I16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H17" s="18" t="s">
@@ -1487,12 +1554,12 @@
       <c r="I17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H18" s="18" t="s">
@@ -1501,12 +1568,12 @@
       <c r="I18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H19" s="18" t="s">
@@ -1515,12 +1582,12 @@
       <c r="I19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H20" s="18" t="s">
@@ -1529,12 +1596,12 @@
       <c r="I20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H21" s="18" t="s">
@@ -1543,12 +1610,12 @@
       <c r="I21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="56"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H22" s="18" t="s">
@@ -1557,12 +1624,12 @@
       <c r="I22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="56"/>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H23" s="18" t="s">
@@ -1571,12 +1638,12 @@
       <c r="I23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="56"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H24" s="18" t="s">
@@ -1585,12 +1652,12 @@
       <c r="I24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="56"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H25" s="18" t="s">
@@ -1599,44 +1666,56 @@
       <c r="I25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="8:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="55"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="56"/>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H26" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="8:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="55"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="56"/>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H27" s="18" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="K27" s="55"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="56"/>
+    </row>
+    <row r="28" spans="8:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H28" s="18" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.15">
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="8:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H29" s="18" t="s">
         <v>11</v>
       </c>
@@ -1698,7 +1777,7 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:P11"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K13:P26"/>
+    <mergeCell ref="K13:P28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,134 +1804,142 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="C16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B10:E10"/>
@@ -1870,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,52 +1972,68 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -253,40 +253,6 @@
   </si>
   <si>
     <t>byte11-byte15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>总体格式说明:
-1.类型表示该帧的类别
-2.长度表示该帧整体长度(类型+长度+数据+填充+校验)
-3.校验表示该帧整体校验(类型+长度+数据+填充)
-4.数据域长度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,不同类型的帧长度不同,该域详细格式见类型字段表
-5.填充域用于将该帧补充为4Bytes对齐(每字节内容都为0xA5)便于CRC32校验
-6.每个分页描述当前实现的一种帧
-7.数据字段中的数据使用网络字节序(高字节在前,低字节在后)
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,6 +372,40 @@
   </si>
   <si>
     <t>字符串(可小于127)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总体格式说明:
+1.类型表示该帧的类别
+2.长度表示该帧数据的长度
+3.校验表示该帧整体校验(类型+长度+数据+填充)
+4.数据域长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,不同类型的帧长度不同,该域详细格式见类型字段表
+5.填充域用于将该帧补充为4Bytes对齐(每字节内容都为0xA5)便于CRC32校验
+6.每个分页描述当前实现的一种帧
+7.数据字段中的数据使用网络字节序(高字节在前,低字节在后)
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,38 +940,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,7 +1276,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="K2" sqref="K2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I2" s="43"/>
       <c r="K2" s="33" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -1359,7 +1359,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="37"/>
@@ -1388,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="37"/>
@@ -1416,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="37"/>
@@ -1497,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -1610,12 +1610,12 @@
       <c r="I21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="56"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="46"/>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H22" s="18" t="s">
@@ -1624,12 +1624,12 @@
       <c r="I22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="56"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H23" s="18" t="s">
@@ -1638,12 +1638,12 @@
       <c r="I23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="56"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="46"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H24" s="18" t="s">
@@ -1652,12 +1652,12 @@
       <c r="I24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="56"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H25" s="18" t="s">
@@ -1666,12 +1666,12 @@
       <c r="I25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="56"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="46"/>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H26" s="18" t="s">
@@ -1680,12 +1680,12 @@
       <c r="I26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="56"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.15">
       <c r="H27" s="18" t="s">
@@ -1694,12 +1694,12 @@
       <c r="I27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="56"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="8:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H28" s="18" t="s">
@@ -1708,12 +1708,12 @@
       <c r="I28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="8:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H29" s="18" t="s">
@@ -1804,62 +1804,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -1869,7 +1869,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>55</v>
@@ -1973,32 +1973,32 @@
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>64</v>
@@ -2010,24 +2010,24 @@
         <v>66</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -378,7 +378,7 @@
     <r>
       <t>总体格式说明:
 1.类型表示该帧的类别
-2.长度表示该帧数据的长度
+2.长度表示该帧后续长度(数据+填充+校验)
 3.校验表示该帧整体校验(类型+长度+数据+填充)
 4.数据域长度</t>
     </r>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,15 @@
 7.数据字段中的数据使用网络字节序(高字节在前,低字节在后)
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下位机交互流程:
+1.上位机程序启动;
+2.等待上位机进入等待下位机状态;
+3.启动下位机;
+4.等待上位机程序进入已连接状态;
+5.开始交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -972,6 +981,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,7 +1309,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:P11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,7 +1430,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
@@ -1411,7 +1444,14 @@
       <c r="O6" s="37"/>
       <c r="P6" s="38"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
       <c r="H7" s="18" t="s">
         <v>28</v>
       </c>
@@ -1426,6 +1466,11 @@
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
@@ -1440,6 +1485,11 @@
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
       <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
@@ -1454,6 +1504,11 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
@@ -1468,6 +1523,11 @@
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
       <c r="H11" s="18" t="s">
         <v>32</v>
       </c>
@@ -1482,6 +1542,11 @@
       <c r="P11" s="41"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
       <c r="H12" s="18" t="s">
         <v>33</v>
       </c>
@@ -1490,6 +1555,11 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
       <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
@@ -1506,6 +1576,11 @@
       <c r="P13" s="35"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
       <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1520,6 +1595,11 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="H15" s="18" t="s">
         <v>36</v>
       </c>
@@ -1534,6 +1614,11 @@
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
@@ -1547,7 +1632,12 @@
       <c r="O16" s="37"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
       <c r="H17" s="18" t="s">
         <v>38</v>
       </c>
@@ -1561,7 +1651,12 @@
       <c r="O17" s="37"/>
       <c r="P17" s="38"/>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
       <c r="H18" s="18" t="s">
         <v>39</v>
       </c>
@@ -1575,7 +1670,7 @@
       <c r="O18" s="37"/>
       <c r="P18" s="38"/>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H19" s="18" t="s">
         <v>40</v>
       </c>
@@ -1589,7 +1684,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="38"/>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H20" s="18" t="s">
         <v>41</v>
       </c>
@@ -1603,7 +1698,7 @@
       <c r="O20" s="37"/>
       <c r="P20" s="38"/>
     </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H21" s="18" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1712,7 @@
       <c r="O21" s="45"/>
       <c r="P21" s="46"/>
     </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H22" s="18" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1726,7 @@
       <c r="O22" s="45"/>
       <c r="P22" s="46"/>
     </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H23" s="18" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1740,7 @@
       <c r="O23" s="45"/>
       <c r="P23" s="46"/>
     </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H24" s="18" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +1754,7 @@
       <c r="O24" s="45"/>
       <c r="P24" s="46"/>
     </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H25" s="18" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1768,7 @@
       <c r="O25" s="45"/>
       <c r="P25" s="46"/>
     </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H26" s="18" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1782,7 @@
       <c r="O26" s="45"/>
       <c r="P26" s="46"/>
     </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H27" s="18" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1796,7 @@
       <c r="O27" s="45"/>
       <c r="P27" s="46"/>
     </row>
-    <row r="28" spans="8:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H28" s="18" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1810,7 @@
       <c r="O28" s="48"/>
       <c r="P28" s="49"/>
     </row>
-    <row r="29" spans="8:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H29" s="18" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H30" s="18" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H31" s="18" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +1834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="8:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H32" s="18" t="s">
         <v>14</v>
       </c>
@@ -1773,11 +1868,12 @@
     </row>
     <row r="36" spans="8:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:P11"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K13:P28"/>
+    <mergeCell ref="B7:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,35 +204,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顺时针旋转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0,100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油门值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -415,6 +391,34 @@
 3.启动下位机;
 4.等待上位机程序进入已连接状态;
 5.开始交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3右旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4左旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1前后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -834,11 +838,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -860,16 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -955,6 +963,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,29 +1013,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,545 +1353,545 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="H2" s="42" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="H2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="K2" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="I2" s="40"/>
+      <c r="K2" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="38"/>
+      <c r="I4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>4</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>4</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="E5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="H7" s="18" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
+      <c r="I7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="H9" s="18" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="H10" s="18" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="H11" s="18" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="H12" s="18" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="H12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="H13" s="18" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="H13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="35"/>
+      <c r="K13" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="H14" s="18" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="H15" s="18" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="H15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="H16" s="18" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="H17" s="18" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="H17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="H18" s="18" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="46"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="46"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="43"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="46"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="46"/>
     </row>
     <row r="29" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1885,159 +1914,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D13" s="68"/>
+      <c r="E13" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="68"/>
       <c r="E14" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="68"/>
       <c r="E15" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>60</v>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -2048,6 +2077,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2068,62 +2098,62 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
-        <v>86</v>
+      <c r="B2" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="28" t="s">
-        <v>87</v>
+      <c r="B3" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
-        <v>88</v>
+      <c r="B4" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+      <c r="B6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>磁力计:     1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气压计:     1有,0无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,12 +417,81 @@
     <t>0xA5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>气压计:     1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前油门:     1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后油门:     1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右油门:     1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左油门:     1有,0无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte20-byte21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte22-byte23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte24-byte25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte26-byte27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左油门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单DMP四元数采样数据(16Bytes数据+0Bytes填充) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -915,6 +980,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -987,6 +1059,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,9 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,27 +1103,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1337,11 +1408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="7" width="7.25" customWidth="1"/>
@@ -1351,29 +1422,29 @@
     <col min="17" max="17" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="H2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="K2" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="H2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="K2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,18 +1461,18 @@
         <v>20</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1418,19 +1489,19 @@
         <v>19</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+    </row>
+    <row r="5" spans="2:16" ht="14.25" thickBot="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="18">
         <v>4</v>
@@ -1450,132 +1521,132 @@
         <v>26</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="H6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+        <v>55</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" thickTop="1">
+      <c r="B7" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
       <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
       <c r="H12" s="15" t="s">
         <v>33</v>
       </c>
@@ -1583,263 +1654,263 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="H13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="K13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
       <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
       <c r="H15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
       <c r="H16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="H17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.25" thickBot="1">
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="2:16" ht="14.25" thickTop="1">
       <c r="H19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40"/>
+    </row>
+    <row r="20" spans="2:16">
       <c r="H20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="2:16">
       <c r="H21" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="H22" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" spans="2:16">
       <c r="H23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" spans="2:16">
       <c r="H24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="2:16">
       <c r="H25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="2:16">
       <c r="H26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+    </row>
+    <row r="27" spans="2:16">
       <c r="H27" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="43"/>
-    </row>
-    <row r="28" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="2:16" ht="14.25" thickBot="1">
       <c r="H28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+    </row>
+    <row r="29" spans="2:16" ht="14.25" thickTop="1">
       <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
@@ -1847,15 +1918,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="H30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="H31" s="15" t="s">
         <v>13</v>
       </c>
@@ -1863,15 +1934,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="H32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
       <c r="H33" s="15" t="s">
         <v>15</v>
       </c>
@@ -1879,23 +1950,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="8:9">
       <c r="H34" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="14.25" thickBot="1">
       <c r="H35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
@@ -1914,11 +1985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
@@ -1927,146 +1998,140 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="14.25" thickTop="1">
+      <c r="B2" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="6" spans="2:5" ht="14.25" thickTop="1">
+      <c r="B6" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="62"/>
-    </row>
-    <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="62"/>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="10" spans="2:5" ht="14.25" thickTop="1">
+      <c r="B10" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="69" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C13" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="70"/>
+      <c r="C16" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="60"/>
       <c r="E16" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -2074,6 +2139,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,85 +2154,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="10" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:10" ht="14.25" thickTop="1">
       <c r="B2" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+    <row r="4" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B4" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="15" thickTop="1" thickBot="1"/>
+    <row r="6" spans="2:10" ht="14.25" thickTop="1">
+      <c r="B6" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickTop="1" thickBot="1"/>
+    <row r="10" spans="2:10" ht="14.25" thickTop="1">
+      <c r="B10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="G12" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>byte11-byte15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单DMP四元数采样数据(16Bytes数据+0Bytes填充)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,22 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>byte20-byte21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte22-byte23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte24-byte25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte26-byte27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前油门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,20 +450,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">单DMP四元数采样数据(16Bytes数据+0Bytes填充) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除</t>
-    </r>
+    <t>byte20-byte23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte24-byte27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte28-byte31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte32-byte35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单DMP四元数采样数据(36Bytes数据+0Bytes填充)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte36-byte39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1059,6 +1050,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,41 +1092,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1436,7 +1425,7 @@
       </c>
       <c r="I2" s="45"/>
       <c r="K2" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -1492,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="39"/>
@@ -1521,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="39"/>
@@ -1546,7 +1535,7 @@
     </row>
     <row r="7" spans="2:16" ht="14.25" thickTop="1">
       <c r="B7" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -1556,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
@@ -1667,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -1845,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
@@ -1859,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
@@ -1873,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
@@ -1887,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
@@ -1923,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -1986,7 +1975,7 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2000,131 +1989,131 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="73"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B6" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="73"/>
+      <c r="B8" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="2:5" ht="14.25" thickBot="1"/>
     <row r="10" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B10" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="61"/>
+      <c r="C11" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="72"/>
       <c r="E11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="61"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25" thickBot="1">
       <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
@@ -2132,6 +2121,12 @@
     <row r="17" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -2139,12 +2134,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2154,48 +2143,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="10" width="15.875" customWidth="1"/>
+    <col min="7" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:10" ht="14.25" thickTop="1">
+    <row r="1" spans="2:11" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:11" ht="14.25" thickTop="1">
       <c r="B2" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="25" t="s">
+    <row r="4" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B4" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B4" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickTop="1" thickBot="1"/>
-    <row r="6" spans="2:10" ht="14.25" thickTop="1">
-      <c r="B6" s="67" t="s">
-        <v>104</v>
+    <row r="5" spans="2:11" ht="15" thickTop="1" thickBot="1"/>
+    <row r="6" spans="2:11" ht="14.25" thickTop="1">
+      <c r="B6" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>57</v>
@@ -2206,104 +2200,61 @@
       <c r="E7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickTop="1" thickBot="1"/>
-    <row r="10" spans="2:10" ht="14.25" thickTop="1">
-      <c r="B10" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="G8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="I8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="J8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="14.25" thickTop="1"/>
+      <c r="K8" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B10:J10"/>
+  <mergeCells count="1">
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,22 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前油门:     1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后油门:     1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右油门:     1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左油门:     1有,0无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前油门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +459,10 @@
   </si>
   <si>
     <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门:     1有,0无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1038,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,22 +1074,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1398,10 +1386,10 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="7" width="7.25" customWidth="1"/>
@@ -1411,8 +1399,8 @@
     <col min="17" max="17" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1">
+    <row r="1" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
@@ -1433,7 +1421,7 @@
       <c r="O2" s="36"/>
       <c r="P2" s="37"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1461,7 +1449,7 @@
       <c r="O3" s="39"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1478,7 @@
       <c r="O4" s="39"/>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="2:16" ht="14.25" thickBot="1">
+    <row r="5" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1519,7 +1507,7 @@
       <c r="O5" s="39"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1">
+    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1533,7 +1521,7 @@
       <c r="O6" s="39"/>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="2:16" ht="14.25" thickTop="1">
+    <row r="7" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
         <v>82</v>
       </c>
@@ -1554,7 +1542,7 @@
       <c r="O7" s="39"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
@@ -1573,7 +1561,7 @@
       <c r="O8" s="39"/>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
@@ -1592,7 +1580,7 @@
       <c r="O9" s="39"/>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
@@ -1611,7 +1599,7 @@
       <c r="O10" s="39"/>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="2:16" ht="14.25" thickBot="1">
+    <row r="11" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
@@ -1630,7 +1618,7 @@
       <c r="O11" s="42"/>
       <c r="P11" s="43"/>
     </row>
-    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
+    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
       <c r="D12" s="55"/>
@@ -1643,7 +1631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="54"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
@@ -1664,7 +1652,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1">
+    <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -1683,7 +1671,7 @@
       <c r="O14" s="39"/>
       <c r="P14" s="40"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -1702,7 +1690,7 @@
       <c r="O15" s="39"/>
       <c r="P15" s="40"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
@@ -1721,7 +1709,7 @@
       <c r="O16" s="39"/>
       <c r="P16" s="40"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
@@ -1740,7 +1728,7 @@
       <c r="O17" s="39"/>
       <c r="P17" s="40"/>
     </row>
-    <row r="18" spans="2:16" ht="14.25" thickBot="1">
+    <row r="18" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="57"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -1759,7 +1747,7 @@
       <c r="O18" s="39"/>
       <c r="P18" s="40"/>
     </row>
-    <row r="19" spans="2:16" ht="14.25" thickTop="1">
+    <row r="19" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H19" s="15" t="s">
         <v>40</v>
       </c>
@@ -1773,7 +1761,7 @@
       <c r="O19" s="39"/>
       <c r="P19" s="40"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H20" s="15" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1775,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="40"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H21" s="15" t="s">
         <v>42</v>
       </c>
@@ -1801,7 +1789,7 @@
       <c r="O21" s="47"/>
       <c r="P21" s="48"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H22" s="15" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1803,7 @@
       <c r="O22" s="47"/>
       <c r="P22" s="48"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H23" s="15" t="s">
         <v>5</v>
       </c>
@@ -1829,12 +1817,12 @@
       <c r="O23" s="47"/>
       <c r="P23" s="48"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
@@ -1843,12 +1831,12 @@
       <c r="O24" s="47"/>
       <c r="P24" s="48"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
@@ -1857,12 +1845,12 @@
       <c r="O25" s="47"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
@@ -1871,12 +1859,12 @@
       <c r="O26" s="47"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H27" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
@@ -1885,7 +1873,7 @@
       <c r="O27" s="47"/>
       <c r="P27" s="48"/>
     </row>
-    <row r="28" spans="2:16" ht="14.25" thickBot="1">
+    <row r="28" spans="2:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H28" s="15" t="s">
         <v>10</v>
       </c>
@@ -1899,15 +1887,15 @@
       <c r="O28" s="50"/>
       <c r="P28" s="51"/>
     </row>
-    <row r="29" spans="2:16" ht="14.25" thickTop="1">
+    <row r="29" spans="2:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H30" s="15" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H31" s="15" t="s">
         <v>13</v>
       </c>
@@ -1923,7 +1911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H32" s="15" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H33" s="15" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +1927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.15">
       <c r="H34" s="15" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="8:9" ht="14.25" thickBot="1">
+    <row r="35" spans="8:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H35" s="17" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="14.25" thickTop="1"/>
+    <row r="36" spans="8:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
@@ -1978,7 +1966,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
@@ -1987,146 +1975,140 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="66" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="69" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="63"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="70"/>
-    </row>
-    <row r="5" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="6" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B6" s="63" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="66" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="69" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="63"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="70"/>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" thickBot="1"/>
-    <row r="10" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B10" s="60" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="73"/>
+    </row>
+    <row r="9" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="68"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="72"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="14.25" thickBot="1">
+    <row r="16" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="14.25" thickTop="1"/>
+    <row r="17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -2134,6 +2116,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2146,36 +2134,36 @@
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:11" ht="14.25" thickTop="1">
+    <row r="1" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" thickBot="1">
+    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" thickTop="1" thickBot="1"/>
-    <row r="6" spans="2:11" ht="14.25" thickTop="1">
-      <c r="B6" s="60" t="s">
-        <v>103</v>
+    <row r="5" spans="2:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
@@ -2187,7 +2175,7 @@
       <c r="J6" s="74"/>
       <c r="K6" s="75"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2204,22 +2192,22 @@
         <v>63</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" thickBot="1">
+    </row>
+    <row r="8" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
@@ -2236,22 +2224,22 @@
         <v>68</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="14.25" thickTop="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:K6"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>总体格式</t>
   </si>
@@ -1449,9 +1449,710 @@
     <t>bit6</t>
   </si>
   <si>
-    <r>
+    <t>bit5</t>
+  </si>
+  <si>
+    <r>
+      <t>气压计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:     1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit4</t>
+  </si>
+  <si>
+    <r>
+      <t>磁力计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:     1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit3</t>
+  </si>
+  <si>
+    <r>
+      <t>陀螺仪数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <r>
+      <t>加计数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:   1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit1</t>
+  </si>
+  <si>
+    <r>
+      <t>DMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>四元数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit0</t>
+  </si>
+  <si>
+    <r>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:       1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>传感请求数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(4Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+0Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>byte0-byte3</t>
+  </si>
+  <si>
+    <r>
+      <t>采样间隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(ms)[0,10000]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>飞行控制数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(3Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+1Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>byte0</t>
+  </si>
+  <si>
+    <t>byte1-byte2</t>
+  </si>
+  <si>
+    <t>byte3</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>熄火</t>
+    </r>
+  </si>
+  <si>
+    <t>0xA5,0xA5</t>
+  </si>
+  <si>
+    <t>0xA5</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>油门</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>[0,1000](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>flyer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>实现相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>byte0-byte127</t>
+  </si>
+  <si>
+    <r>
+      <t>字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>可小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>127)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>DMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>四元数采样数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(36Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+0Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>byte4-byte7</t>
+  </si>
+  <si>
+    <t>byte8-byte11</t>
+  </si>
+  <si>
+    <t>byte11-byte15</t>
+  </si>
+  <si>
+    <t>byte16-byte19</t>
+  </si>
+  <si>
+    <t>byte20-byte23</t>
+  </si>
+  <si>
+    <t>byte24-byte27</t>
+  </si>
+  <si>
+    <t>byte28-byte31</t>
+  </si>
+  <si>
+    <t>byte32-byte35</t>
+  </si>
+  <si>
+    <t>byte36-byte39</t>
+  </si>
+  <si>
+    <r>
+      <t>四轴毫秒数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(uint32)</t>
+    </r>
+  </si>
+  <si>
+    <t>q0(f32)</t>
+  </si>
+  <si>
+    <t>q1(f32)</t>
+  </si>
+  <si>
+    <t>q2(f32)</t>
+  </si>
+  <si>
+    <t>q3(f32)</t>
+  </si>
+  <si>
+    <t>前油门</t>
+  </si>
+  <si>
+    <t>右油门</t>
+  </si>
+  <si>
+    <t>后油门</t>
+  </si>
+  <si>
+    <t>左油门</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <r>
+      <t>油门</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1492,707 +2193,15 @@
       </rPr>
       <t>无</t>
     </r>
-  </si>
-  <si>
-    <t>bit5</t>
-  </si>
-  <si>
-    <r>
-      <t>气压计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:     1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit4</t>
-  </si>
-  <si>
-    <r>
-      <t>磁力计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:     1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit3</t>
-  </si>
-  <si>
-    <r>
-      <t>陀螺仪数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit2</t>
-  </si>
-  <si>
-    <r>
-      <t>加计数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:   1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit1</t>
-  </si>
-  <si>
-    <r>
-      <t>DMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>四元数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit0</t>
-  </si>
-  <si>
-    <r>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:       1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>传感请求数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(4Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+0Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>byte0-byte3</t>
-  </si>
-  <si>
-    <r>
-      <t>采样间隔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(ms)[0,10000]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>飞行控制数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(3Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+1Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>byte0</t>
-  </si>
-  <si>
-    <t>byte1-byte2</t>
-  </si>
-  <si>
-    <t>byte3</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>熄火</t>
-    </r>
-  </si>
-  <si>
-    <t>0xA5,0xA5</t>
-  </si>
-  <si>
-    <t>0xA5</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>油门</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[0,1000](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>flyer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>实现相关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>byte0-byte127</t>
-  </si>
-  <si>
-    <r>
-      <t>字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>可小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>127)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>DMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>四元数采样数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(36Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+0Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>byte4-byte7</t>
-  </si>
-  <si>
-    <t>byte8-byte11</t>
-  </si>
-  <si>
-    <t>byte11-byte15</t>
-  </si>
-  <si>
-    <t>byte16-byte19</t>
-  </si>
-  <si>
-    <t>byte20-byte23</t>
-  </si>
-  <si>
-    <t>byte24-byte27</t>
-  </si>
-  <si>
-    <t>byte28-byte31</t>
-  </si>
-  <si>
-    <t>byte32-byte35</t>
-  </si>
-  <si>
-    <t>byte36-byte39</t>
-  </si>
-  <si>
-    <r>
-      <t>四轴毫秒数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(uint32)</t>
-    </r>
-  </si>
-  <si>
-    <t>q0(f32)</t>
-  </si>
-  <si>
-    <t>q1(f32)</t>
-  </si>
-  <si>
-    <t>q2(f32)</t>
-  </si>
-  <si>
-    <t>q3(f32)</t>
-  </si>
-  <si>
-    <t>前油门</t>
-  </si>
-  <si>
-    <t>右油门</t>
-  </si>
-  <si>
-    <t>后油门</t>
-  </si>
-  <si>
-    <t>左油门</t>
-  </si>
-  <si>
-    <t>最大值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID:     1有,0无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉角:     1有,0无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2424,30 +2433,6 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2515,11 +2500,35 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2892,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2909,546 +2918,546 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="15">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="19" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="19" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="19" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="19" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="19" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="19" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="19" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="H13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="19" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="H14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="19" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="H15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="19" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="H16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="19" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="H17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="19" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="H18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="I27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="I28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="H30" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="H30" s="19" t="s">
+      <c r="I30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="12" t="s">
+    </row>
+    <row r="31" spans="2:16">
+      <c r="H31" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="H31" s="19" t="s">
+      <c r="I31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="12" t="s">
+    </row>
+    <row r="32" spans="2:16">
+      <c r="H32" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="H32" s="19" t="s">
+      <c r="I32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="12" t="s">
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="19" t="s">
+      <c r="I33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="12" t="s">
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="19" t="s">
+      <c r="I34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="18" t="s">
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="24" t="s">
+      <c r="I35" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3485,72 +3494,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="27" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="29" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B9" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
-        <v>71</v>
+      <c r="D9" s="39"/>
+      <c r="E9" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" thickTop="1"/>
@@ -3574,7 +3583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3587,96 +3596,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="31" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="32" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" s="36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="H7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="I7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="K7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="27" t="s">
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="H8" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="30" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>总体格式</t>
   </si>
@@ -787,8 +787,282 @@
     <t>bit28</t>
   </si>
   <si>
-    <r>
-      <t>文本打印</t>
+    <t>bit27</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>bit26</t>
+  </si>
+  <si>
+    <t>bit25</t>
+  </si>
+  <si>
+    <t>bit24</t>
+  </si>
+  <si>
+    <t>bit23</t>
+  </si>
+  <si>
+    <t>bit22</t>
+  </si>
+  <si>
+    <t>bit21</t>
+  </si>
+  <si>
+    <t>bit20</t>
+  </si>
+  <si>
+    <t>bit19</t>
+  </si>
+  <si>
+    <t>bit18</t>
+  </si>
+  <si>
+    <t>bit17</t>
+  </si>
+  <si>
+    <t>bit16</t>
+  </si>
+  <si>
+    <t>bit15</t>
+  </si>
+  <si>
+    <t>bit14</t>
+  </si>
+  <si>
+    <t>bit13</t>
+  </si>
+  <si>
+    <t>bit12</t>
+  </si>
+  <si>
+    <t>bit11</t>
+  </si>
+  <si>
+    <t>bit10</t>
+  </si>
+  <si>
+    <t>bit9</t>
+  </si>
+  <si>
+    <t>bit8</t>
+  </si>
+  <si>
+    <t>bit7</t>
+  </si>
+  <si>
+    <t>bit6</t>
+  </si>
+  <si>
+    <t>bit5</t>
+  </si>
+  <si>
+    <r>
+      <t>气压计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:     1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit4</t>
+  </si>
+  <si>
+    <r>
+      <t>磁力计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:     1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit3</t>
+  </si>
+  <si>
+    <r>
+      <t>陀螺仪数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <r>
+      <t>加计数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:   1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>bit1</t>
+  </si>
+  <si>
+    <r>
+      <t>DMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>四元数</t>
     </r>
     <r>
       <rPr>
@@ -832,25 +1106,456 @@
     </r>
   </si>
   <si>
-    <t>bit27</t>
-  </si>
-  <si>
-    <t>保留</t>
-  </si>
-  <si>
-    <t>bit26</t>
-  </si>
-  <si>
-    <t>bit25</t>
-  </si>
-  <si>
-    <t>bit24</t>
-  </si>
-  <si>
-    <t>bit23</t>
-  </si>
-  <si>
-    <t>bit22</t>
+    <t>bit0</t>
+  </si>
+  <si>
+    <r>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:       1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <t>byte0-byte3</t>
+  </si>
+  <si>
+    <t>byte0</t>
+  </si>
+  <si>
+    <t>byte1-byte2</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>熄火</t>
+    </r>
+  </si>
+  <si>
+    <t>0xA5,0xA5</t>
+  </si>
+  <si>
+    <t>0xA5</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>油门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[0,1000](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>flyer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>实现相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>byte0-byte127</t>
+  </si>
+  <si>
+    <r>
+      <t>字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>可小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>127)</t>
+    </r>
+  </si>
+  <si>
+    <t>byte4-byte7</t>
+  </si>
+  <si>
+    <t>byte8-byte11</t>
+  </si>
+  <si>
+    <t>byte11-byte15</t>
+  </si>
+  <si>
+    <t>byte16-byte19</t>
+  </si>
+  <si>
+    <t>byte20-byte23</t>
+  </si>
+  <si>
+    <t>byte24-byte27</t>
+  </si>
+  <si>
+    <t>byte28-byte31</t>
+  </si>
+  <si>
+    <t>byte32-byte35</t>
+  </si>
+  <si>
+    <t>byte36-byte39</t>
+  </si>
+  <si>
+    <t>q0(f32)</t>
+  </si>
+  <si>
+    <t>q1(f32)</t>
+  </si>
+  <si>
+    <t>q2(f32)</t>
+  </si>
+  <si>
+    <t>q3(f32)</t>
+  </si>
+  <si>
+    <r>
+      <t>油门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:     1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID:     1有,0无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧拉角:     1有,0无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>时间+DMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>四元数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+油门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>采样数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(40Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+0Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯仰pid(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏航角(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯仰角(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>横滚角(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>横滚pid(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏航pid(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前油门(i32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右油门(i32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后油门(i32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左油门(i32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油门最值(i32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四轴毫秒数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(ui32)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte40-byte43</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte44-byte47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四轴毫秒数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(ui32)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间+油门+欧拉角(角度为单位)+PID采样数据(48Bytes数据+0Bytes填充)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,7 +2031,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(16Bytes),</t>
+      <t>(32Bytes),</t>
     </r>
     <r>
       <rPr>
@@ -1346,7 +2051,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>4Bytes
+      <t>20Bytes
 8.</t>
     </r>
     <r>
@@ -1399,71 +2104,47 @@
       </rPr>
       <t>全部使用填充字节</t>
     </r>
-  </si>
-  <si>
-    <t>bit21</t>
-  </si>
-  <si>
-    <t>bit20</t>
-  </si>
-  <si>
-    <t>bit19</t>
-  </si>
-  <si>
-    <t>bit18</t>
-  </si>
-  <si>
-    <t>bit17</t>
-  </si>
-  <si>
-    <t>bit16</t>
-  </si>
-  <si>
-    <t>bit15</t>
-  </si>
-  <si>
-    <t>bit14</t>
-  </si>
-  <si>
-    <t>bit13</t>
-  </si>
-  <si>
-    <t>bit12</t>
-  </si>
-  <si>
-    <t>bit11</t>
-  </si>
-  <si>
-    <t>bit10</t>
-  </si>
-  <si>
-    <t>bit9</t>
-  </si>
-  <si>
-    <t>bit8</t>
-  </si>
-  <si>
-    <t>bit7</t>
-  </si>
-  <si>
-    <t>bit6</t>
-  </si>
-  <si>
-    <t>bit5</t>
-  </si>
-  <si>
-    <r>
-      <t>气压计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:     1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte4-byte19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte3-byte19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采样间隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(ms)[0,10000]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>文本打印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:  1</t>
     </r>
     <r>
       <rPr>
@@ -1495,260 +2176,134 @@
       </rPr>
       <t>无</t>
     </r>
-  </si>
-  <si>
-    <t>bit4</t>
-  </si>
-  <si>
-    <r>
-      <t>磁力计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:     1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit3</t>
-  </si>
-  <si>
-    <r>
-      <t>陀螺仪数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit2</t>
-  </si>
-  <si>
-    <r>
-      <t>加计数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:   1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit1</t>
-  </si>
-  <si>
-    <r>
-      <t>DMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>四元数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <t>bit0</t>
-  </si>
-  <si>
-    <r>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:       1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>传感请求数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID参数:  1有,0无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>PID参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(3Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+1Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>飞行控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(3Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+17Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>传感请求</t>
     </r>
     <r>
       <rPr>
@@ -1778,7 +2333,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>+0Bytes</t>
+      <t>+16Bytes</t>
     </r>
     <r>
       <rPr>
@@ -1800,407 +2355,50 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>byte0-byte3</t>
-  </si>
-  <si>
-    <r>
-      <t>采样间隔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(ms)[0,10000]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>飞行控制数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(3Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+1Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>byte0</t>
-  </si>
-  <si>
-    <t>byte1-byte2</t>
-  </si>
-  <si>
-    <t>byte3</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>熄火</t>
-    </r>
-  </si>
-  <si>
-    <t>0xA5,0xA5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte1-byte4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte5-byte8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte9-byte12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0俯仰pid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1横滚pid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2偏航pid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte13-byte19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0xA5</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>油门</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[0,1000](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>flyer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>实现相关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>字符串</t>
-  </si>
-  <si>
-    <t>byte0-byte127</t>
-  </si>
-  <si>
-    <r>
-      <t>字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>可小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>127)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>DMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>四元数采样数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(36Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+0Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>byte4-byte7</t>
-  </si>
-  <si>
-    <t>byte8-byte11</t>
-  </si>
-  <si>
-    <t>byte11-byte15</t>
-  </si>
-  <si>
-    <t>byte16-byte19</t>
-  </si>
-  <si>
-    <t>byte20-byte23</t>
-  </si>
-  <si>
-    <t>byte24-byte27</t>
-  </si>
-  <si>
-    <t>byte28-byte31</t>
-  </si>
-  <si>
-    <t>byte32-byte35</t>
-  </si>
-  <si>
-    <t>byte36-byte39</t>
-  </si>
-  <si>
-    <r>
-      <t>四轴毫秒数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(uint32)</t>
-    </r>
-  </si>
-  <si>
-    <t>q0(f32)</t>
-  </si>
-  <si>
-    <t>q1(f32)</t>
-  </si>
-  <si>
-    <t>q2(f32)</t>
-  </si>
-  <si>
-    <t>q3(f32)</t>
-  </si>
-  <si>
-    <t>前油门</t>
-  </si>
-  <si>
-    <t>右油门</t>
-  </si>
-  <si>
-    <t>后油门</t>
-  </si>
-  <si>
-    <t>左油门</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <r>
-      <t>油门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:     1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PID:     1有,0无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧拉角:     1有,0无</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2208,7 +2406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2248,8 +2446,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2264,12 +2468,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2427,11 +2637,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2476,16 +2731,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2497,37 +2743,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2901,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2918,25 +3238,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="34" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="K2" s="35" t="s">
+      <c r="I2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
@@ -2959,12 +3279,12 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
@@ -2988,12 +3308,12 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="12" t="s">
@@ -3017,12 +3337,12 @@
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="2:16">
       <c r="H6" s="11" t="s">
@@ -3031,433 +3351,433 @@
       <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="H8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="H9" s="11" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="H11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="H13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="H14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="35" t="s">
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="H15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="H14" s="11" t="s">
+      <c r="I15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="H16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="11" t="s">
+      <c r="I16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="H17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="H16" s="11" t="s">
+      <c r="I17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="H18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="H17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="2:16">
       <c r="H19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="2:16">
       <c r="H20" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16">
       <c r="H21" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="2:16">
       <c r="H22" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="2:16">
       <c r="H23" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="2:16">
       <c r="H24" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="2:16">
       <c r="H25" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="2:16">
       <c r="H26" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+        <v>25</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="2:16">
       <c r="H27" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="2:16">
       <c r="H28" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:16">
       <c r="H29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="H30" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:16">
       <c r="H31" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="H32" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="H33" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="8:9">
       <c r="H34" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="8:9">
       <c r="H35" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3476,102 +3796,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
-    <col min="2" max="2" width="6.125"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="12.625"/>
     <col min="4" max="4" width="14"/>
-    <col min="5" max="5" width="11.625"/>
-    <col min="6" max="6" width="16.5"/>
-    <col min="7" max="1025" width="9.125"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="1024" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="12.75" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="6" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B6" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="72"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B10" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickTop="1" thickBot="1"/>
+    <row r="12" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="40" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="41" t="s">
+      <c r="C14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="2:5" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="6" spans="2:5" ht="14.25" thickTop="1">
-      <c r="B6" s="36" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B15" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C15" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25" thickTop="1"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="8">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3581,116 +3985,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
-    <col min="2" max="2" width="19.375"/>
-    <col min="3" max="11" width="14" customWidth="1"/>
-    <col min="12" max="1025" width="9.125"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="1025" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="36" t="s">
+      <c r="I7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="K7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="27" t="s">
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="D8" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="G8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickTop="1" thickBot="1"/>
+    <row r="10" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B10" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B12" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="L12" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="M12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    </row>
+    <row r="13" spans="2:13" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
   <si>
     <t>总体格式</t>
   </si>
@@ -527,51 +527,6 @@
     <t>bit31</t>
   </si>
   <si>
-    <r>
-      <t>方向</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>上行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>下行</t>
-    </r>
-  </si>
-  <si>
     <t>字节数</t>
   </si>
   <si>
@@ -787,9 +742,6 @@
     <t>bit28</t>
   </si>
   <si>
-    <t>bit27</t>
-  </si>
-  <si>
     <t>保留</t>
   </si>
   <si>
@@ -1106,54 +1058,6 @@
     </r>
   </si>
   <si>
-    <t>bit0</t>
-  </si>
-  <si>
-    <r>
-      <t>时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:       1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>无</t>
-    </r>
-  </si>
-  <si>
     <t>byte0-byte3</t>
   </si>
   <si>
@@ -1245,44 +1149,6 @@
   </si>
   <si>
     <t>字符串</t>
-  </si>
-  <si>
-    <t>byte0-byte127</t>
-  </si>
-  <si>
-    <r>
-      <t>字符串</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>可小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>127)</t>
-    </r>
   </si>
   <si>
     <t>byte4-byte7</t>
@@ -2399,6 +2265,72 @@
   </si>
   <si>
     <t>0xA5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串(4的整数倍)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte4-</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>上行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>下行</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit27</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2479,7 +2411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2611,36 +2543,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2678,6 +2580,96 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2686,7 +2678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,12 +2690,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2716,7 +2702,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2727,14 +2712,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2753,75 +2731,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2837,18 +2759,100 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3219,10 +3223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P35"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3237,28 +3241,29 @@
     <col min="18" max="1025" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="H2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="K2" s="38" t="s">
+      <c r="I2" s="69"/>
+      <c r="K2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-    </row>
-    <row r="3" spans="2:16">
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3274,510 +3279,510 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="I3" s="71"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="F5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="13">
-        <v>4</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="H5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+    </row>
+    <row r="7" spans="2:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="2:16" ht="14.25" customHeight="1">
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="H7" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="H8" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="H9" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="H10" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="H11" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="H12" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="H13" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="H14" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="H15" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="H16" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="H17" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+    </row>
+    <row r="18" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="H18" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H19" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H20" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H21" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+    </row>
+    <row r="22" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H22" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+    </row>
+    <row r="23" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H24" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H25" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H26" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H27" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H28" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+    </row>
+    <row r="29" spans="2:16" ht="14.25" thickTop="1">
+      <c r="H29" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="H30" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="H31" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="H32" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="14.25" thickBot="1">
+      <c r="H35" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="H7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="H8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="H9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="H10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="H11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="H13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="H14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="H15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="H16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="H17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="H18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="H19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="H20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="H21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="H22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="H23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="H24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="H25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="H26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="H27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="H28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="H29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="H30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="H31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="H32" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>58</v>
+      <c r="I35" s="76" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3804,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3815,167 +3820,167 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
-        <v>104</v>
+      <c r="B3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="28" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B4" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
-        <v>106</v>
+      <c r="B4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="29" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="12.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="6" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="72"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="67" t="s">
+      <c r="C8" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D8" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>123</v>
+      <c r="F8" s="43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="10" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B10" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>123</v>
+      <c r="B10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickTop="1" thickBot="1"/>
     <row r="12" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="58" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="60" t="s">
+      <c r="C15" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B15" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71" t="s">
-        <v>64</v>
+      <c r="D15" s="61"/>
+      <c r="E15" s="42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3985,211 +3990,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B1:M13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="13" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="13" width="14.375" customWidth="1"/>
     <col min="14" max="1025" width="9.125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:13" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="67"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickTop="1" thickBot="1"/>
+    <row r="6" spans="2:13">
+      <c r="B6" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="21" t="s">
+      <c r="H7" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="I7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="J7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="K7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="24" t="s">
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>97</v>
+      <c r="G8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickTop="1" thickBot="1"/>
     <row r="10" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B10" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="B10" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="J11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="K11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>100</v>
+      <c r="L11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B12" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="C12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="F12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="34" t="s">
+      <c r="G12" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>92</v>
+      <c r="H12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/doc/协议.xlsx
+++ b/doc/协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帧格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
   <si>
     <t>总体格式</t>
   </si>
@@ -1178,18 +1178,6 @@
     <t>byte36-byte39</t>
   </si>
   <si>
-    <t>q0(f32)</t>
-  </si>
-  <si>
-    <t>q1(f32)</t>
-  </si>
-  <si>
-    <t>q2(f32)</t>
-  </si>
-  <si>
-    <t>q3(f32)</t>
-  </si>
-  <si>
     <r>
       <t>油门</t>
     </r>
@@ -1241,99 +1229,6 @@
   </si>
   <si>
     <t>欧拉角:     1有,0无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>时间+DMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>四元数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+油门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>采样数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(40Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>+0Bytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>填充</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2331,6 +2226,71 @@
   </si>
   <si>
     <t>bit27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>时间+加计+欧拉角(28Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>+0Bytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>填充</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加计x(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加计y(f32)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加计z(f32)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2678,7 +2638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,8 +2679,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2771,12 +2729,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,18 +2796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,28 +2809,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3225,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -3243,25 +3201,25 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="H2" s="68" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="H2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="K2" s="47" t="s">
+      <c r="I2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="B3" s="1" t="s">
@@ -3279,17 +3237,17 @@
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="71"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
@@ -3307,18 +3265,18 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="I4" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickTop="1" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -3336,453 +3294,453 @@
       <c r="F5" s="12">
         <v>4</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="2:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="H7" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="H7" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="H8" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="H8" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="H9" s="72" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="H9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="H10" s="72" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="H10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="H11" s="72" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="H11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="H12" s="72" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="H12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="H13" s="72" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="H13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="H14" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="H15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="H16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="H17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="H18" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H19" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H22" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+    </row>
+    <row r="23" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+    </row>
+    <row r="24" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H24" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H27" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+    </row>
+    <row r="28" spans="2:16" ht="15" thickTop="1" thickBot="1">
+      <c r="H28" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+    </row>
+    <row r="29" spans="2:16" ht="14.25" thickTop="1">
+      <c r="H29" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="H30" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="H31" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="H32" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" ht="14.25" thickBot="1">
+      <c r="H35" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="50" t="s">
         <v>97</v>
-      </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="H14" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="H15" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="H16" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="H17" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="H18" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H19" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H20" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H21" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-    </row>
-    <row r="22" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H22" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H23" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H24" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-    </row>
-    <row r="25" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H25" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H26" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H27" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="2:16" ht="15" thickTop="1" thickBot="1">
-      <c r="H28" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="2:16" ht="14.25" thickTop="1">
-      <c r="H29" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="H30" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="H31" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="H32" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" ht="14.25" thickBot="1">
-      <c r="H35" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="76" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3820,153 +3778,153 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B2" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="28" t="s">
-        <v>98</v>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B4" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="29" t="s">
-        <v>100</v>
+      <c r="B4" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="12.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="6" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="F7" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" thickBot="1">
+      <c r="B10" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="D10" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B10" s="37" t="s">
+      <c r="F10" s="42" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" thickTop="1" thickBot="1"/>
     <row r="12" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B12" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="58"/>
+      <c r="B12" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="32" t="s">
-        <v>99</v>
+      <c r="D13" s="55"/>
+      <c r="E13" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.25" thickBot="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="42" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3992,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4007,41 +3965,38 @@
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="14.25" thickBot="1">
       <c r="B4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>118</v>
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickTop="1" thickBot="1"/>
-    <row r="6" spans="2:13">
-      <c r="B6" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+    <row r="6" spans="2:13" ht="14.25" thickTop="1">
+      <c r="B6" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="14" t="s">
@@ -4062,150 +4017,132 @@
       <c r="G7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+    </row>
+    <row r="8" spans="2:13" ht="14.25" thickBot="1">
       <c r="B8" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickTop="1" thickBot="1"/>
     <row r="10" spans="2:13" ht="14.25" thickTop="1">
-      <c r="B10" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
+      <c r="B10" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>94</v>
+      <c r="L11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.25" thickBot="1">
-      <c r="B12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="26" t="s">
+      <c r="F12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="25" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B6:K6"/>
     <mergeCell ref="B10:M10"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
